--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32057-d75991-Reviews-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Suites.h534655.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,809 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r508058847-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>32057</t>
+  </si>
+  <si>
+    <t>75991</t>
+  </si>
+  <si>
+    <t>508058847</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The rooms are clean, but certainly old. The staff was friendly.The carpet in the entire hotel needs to be replaced. it's sticky and very dirty. Hotel is located close to stores and several restaurants, banks and a (card) casino.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r469107254-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>469107254</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Average Hotel...Nothing Special.</t>
+  </si>
+  <si>
+    <t>I booked the hotel two days prior and arrived just after 2pm on the day of the reservation.  The room was clean and had a microwave and refrigerator.  There was internet access, however, no information in the room on how to log on.  There really was no information in the room about anything...TV guide, etc.  The breakfast was good.  Check in was fast and easy and the clerk friendly.  I was concerned about noise, however, the night was quiet.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r442663709-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>442663709</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Budget Price Hotel</t>
+  </si>
+  <si>
+    <t>If you're on a budget just as I was and playing in poker tournaments at the Bicycle Casino then this is the place to stay. You're saving over 60% by staying here instead of the casino hotel. This place is directly across the street from the Bicycle. Of course, the rooms aren't as nice or up to date, but you get what you pay for. I had an early flight so I arrived around 9:30 am. I knew check-in wasn't until 3 pm so I asked them to hold my baggage while I ventured out and about. I had breakfast at an IHOP down the block. I walked over to the Bicycle Casino and registered for my tournament. There's also a shopping center next to the Quality Inn, so I did some window shopping at a Marshall's and Ross. 
+I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before...If you're on a budget just as I was and playing in poker tournaments at the Bicycle Casino then this is the place to stay. You're saving over 60% by staying here instead of the casino hotel. This place is directly across the street from the Bicycle. Of course, the rooms aren't as nice or up to date, but you get what you pay for. I had an early flight so I arrived around 9:30 am. I knew check-in wasn't until 3 pm so I asked them to hold my baggage while I ventured out and about. I had breakfast at an IHOP down the block. I walked over to the Bicycle Casino and registered for my tournament. There's also a shopping center next to the Quality Inn, so I did some window shopping at a Marshall's and Ross. I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before you leave for the day.I noticed that on two of the nights, there was a party going in their banquet room. They must rent it out. Lots of people, music playing, party noise. If you think that would bother you, I would request a room on the third floor.They served breakfast every morning downstairs in the lobby area. Nothing gourmet or anything, but it's something right. They had coffee, cereal, bread, muffins, croissants, sausage and yellow egg rounds, do-it-yourself waffles (blueberry or buttermilk), yogurt, milk, hot water. There's many food options in the area within walking distance, i.e. Applebee's, McDonald's, KFC, Starbucks, various Mexican restaurants, etc. I did some retail shopping at the Citadel Outlets which is about 3 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>If you're on a budget just as I was and playing in poker tournaments at the Bicycle Casino then this is the place to stay. You're saving over 60% by staying here instead of the casino hotel. This place is directly across the street from the Bicycle. Of course, the rooms aren't as nice or up to date, but you get what you pay for. I had an early flight so I arrived around 9:30 am. I knew check-in wasn't until 3 pm so I asked them to hold my baggage while I ventured out and about. I had breakfast at an IHOP down the block. I walked over to the Bicycle Casino and registered for my tournament. There's also a shopping center next to the Quality Inn, so I did some window shopping at a Marshall's and Ross. 
+I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before...If you're on a budget just as I was and playing in poker tournaments at the Bicycle Casino then this is the place to stay. You're saving over 60% by staying here instead of the casino hotel. This place is directly across the street from the Bicycle. Of course, the rooms aren't as nice or up to date, but you get what you pay for. I had an early flight so I arrived around 9:30 am. I knew check-in wasn't until 3 pm so I asked them to hold my baggage while I ventured out and about. I had breakfast at an IHOP down the block. I walked over to the Bicycle Casino and registered for my tournament. There's also a shopping center next to the Quality Inn, so I did some window shopping at a Marshall's and Ross. I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before you leave for the day.I noticed that on two of the nights, there was a party going in their banquet room. They must rent it out. Lots of people, music playing, party noise. If you think that would bother you, I would request a room on the third floor.They served breakfast every morning downstairs in the lobby area. Nothing gourmet or anything, but it's something right. They had coffee, cereal, bread, muffins, croissants, sausage and yellow egg rounds, do-it-yourself waffles (blueberry or buttermilk), yogurt, milk, hot water. There's many food options in the area within walking distance, i.e. Applebee's, McDonald's, KFC, Starbucks, various Mexican restaurants, etc. I did some retail shopping at the Citadel Outlets which is about 3 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r422313822-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>422313822</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Dirty...</t>
+  </si>
+  <si>
+    <t>Hard to find okay cheap accommodation in L.A. I know... But this place is worn down and pretty dirty all over - including the small not heated pool.Staff was nice though and breakfast was not bad.But not the kinda place you visit twice.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r421646521-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>421646521</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's ok .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a nice hotel .. Very comfy and not expensive at all .. The area is very quite but you have a lots of restaurants and pubs around .. Very clean and the staff is very kindly .. Also you can enjoy the warm days to the hotel pool </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r417750959-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>417750959</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Last night in Ca</t>
+  </si>
+  <si>
+    <t>We used our points for this hotel sounded nice but when we got there late at night. Yuck carpet was very stained sofa was lumpy in need of replacing bathroom had been redone was fine. Asked to be moved but told no other availabability, too late and tired to look elsewhere. Breakfast was fine, never able to get wifi was told "keep trying".</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r397113011-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>397113011</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>I love this place</t>
+  </si>
+  <si>
+    <t>Had sooo much fun in the swimming pool with my family.. Enjoyed the fact that Ihop is just across the street and Applebees right next door. The front Desk Natalie is super awesome soo helpful.   Thank you.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r380605900-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>380605900</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Going downhill</t>
+  </si>
+  <si>
+    <t>We started staying at this motel 3 years ago and it was wonderful.  Every time we've stayed here since, the quality has gone downhill.  Dirty walls.  Dirty stained carpets.  So grimy, I hate to touch anything.  They continually run out of food at breakfast.  Three years ago it was a very nice place to stay.  Not now.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r366445193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>366445193</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Not up to Quality Inn standard</t>
+  </si>
+  <si>
+    <t>I wanted some place within 20 miles to the LAX and found this one.It was not a good value for the room rate.There was an odor probably contained in the old carpet all through the floors and the hotel rooms.The rooms were spacious and painted with updated interiors but that could not hide the odor.The exhaust fan in the room was noisy and needed to be fixed as that spoiled the otherwise quite good bathroom.The room was dimly lit and could use a brighter lamp somewhere.The staff was professional and pleasant but that did not alter the stay experience.On the bright side, I had a comfortable sleep but not my roommate for whatever reason. The beds were comfortable.It is close to a lot of eateries and grocery store.Plus it is right off the ground 710 freeway.I think this can be a decent place to stay after the carpet is replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I wanted some place within 20 miles to the LAX and found this one.It was not a good value for the room rate.There was an odor probably contained in the old carpet all through the floors and the hotel rooms.The rooms were spacious and painted with updated interiors but that could not hide the odor.The exhaust fan in the room was noisy and needed to be fixed as that spoiled the otherwise quite good bathroom.The room was dimly lit and could use a brighter lamp somewhere.The staff was professional and pleasant but that did not alter the stay experience.On the bright side, I had a comfortable sleep but not my roommate for whatever reason. The beds were comfortable.It is close to a lot of eateries and grocery store.Plus it is right off the ground 710 freeway.I think this can be a decent place to stay after the carpet is replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r330672478-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>330672478</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Loud outside</t>
+  </si>
+  <si>
+    <t>Average room, but lot's of places to walk to including a casino across the street. The down side of that is it's not quite. The desk staff was very friendly, but the breakfast staff was very unfriendly. Breakfast was supposed to start at 6:00 AM and when I went down at 6:45, they were still setting up. By the time I got to eat anything, it was 7:00. Pretty disappointing. Also, wifi didn't reach my room on the third floor.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r316964102-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>316964102</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Really nice hotel</t>
+  </si>
+  <si>
+    <t>Hotel is close to all. Food shopping and even the bicycle club is across the street. They had the nicest fridge ive ever seen at a hotel. The staff was very friendly. Rooms were very nice. Once again lots of pillows. Love that touch. Makes me feel like home. The whole hotel is non smoking. Just wish there was some place to sit outside to smoke. And swimming pool was closed by the city due to problem with the chlorine. And part of the metal fence was missing. Plus the jaccuzi was real dirty. Breakfast was really good. Plus u could take it back to your room. Makes it comfortable. One of the few places that still has a coffee pot in the room. Thank you for a wonderful time at your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Hotel is close to all. Food shopping and even the bicycle club is across the street. They had the nicest fridge ive ever seen at a hotel. The staff was very friendly. Rooms were very nice. Once again lots of pillows. Love that touch. Makes me feel like home. The whole hotel is non smoking. Just wish there was some place to sit outside to smoke. And swimming pool was closed by the city due to problem with the chlorine. And part of the metal fence was missing. Plus the jaccuzi was real dirty. Breakfast was really good. Plus u could take it back to your room. Makes it comfortable. One of the few places that still has a coffee pot in the room. Thank you for a wonderful time at your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r309941876-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>309941876</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Not up to standards expected of a Comfort Inn</t>
+  </si>
+  <si>
+    <t>Where to start?  Check in was quick and easy.  We got the 1 bedroom suite.  First thing I noticed was the large rip in the couch back.  Sitting down on the couch, I almost sank down to the floor.  I could hardly climb out of the couch.  Next I saw that a lamp shade was coming apart and had holes in the shade.    In the bathroom, the shower head would be fine if you were only 5 feet tall.  In the bedroom the two bottom drawers in the cheats of drawers would not close and stuck out.  And the telephone had a large red blinking light.  I could not get it to stop blinking.  I called the. Front desk and they did send over two maintenance ladies right away.  They could not make the phone red light stop blinking either.  So I had them unplug the phone to stop the blinking light.  I use a mobility scooter and the parking area streets are very slanted.  I was very aprenhensive that I would tip over.  On the plus side, the room was clean and while the mattress was a little saggy, it was comfortable.  Best of all it is only about a 4 minute walk to the Bicycle Casino across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to start?  Check in was quick and easy.  We got the 1 bedroom suite.  First thing I noticed was the large rip in the couch back.  Sitting down on the couch, I almost sank down to the floor.  I could hardly climb out of the couch.  Next I saw that a lamp shade was coming apart and had holes in the shade.    In the bathroom, the shower head would be fine if you were only 5 feet tall.  In the bedroom the two bottom drawers in the cheats of drawers would not close and stuck out.  And the telephone had a large red blinking light.  I could not get it to stop blinking.  I called the. Front desk and they did send over two maintenance ladies right away.  They could not make the phone red light stop blinking either.  So I had them unplug the phone to stop the blinking light.  I use a mobility scooter and the parking area streets are very slanted.  I was very aprenhensive that I would tip over.  On the plus side, the room was clean and while the mattress was a little saggy, it was comfortable.  Best of all it is only about a 4 minute walk to the Bicycle Casino across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r293899745-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>293899745</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Nice Cockroach!</t>
+  </si>
+  <si>
+    <t>Pretty rough around the edges, but what were you expecting for $150/night in LA?  Then I squashed the cockroach.  And I've had about enough.  Everything is rough.  Half the shower head is blocked by scale; hall carpets look atrocious; front desk staff are variable, at best.  And I brought my cockroach to the front desk and was told management would look into it.  I haven't heard from them, so maybe they don't care... but I suspect that you'll care, so here he is.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Pretty rough around the edges, but what were you expecting for $150/night in LA?  Then I squashed the cockroach.  And I've had about enough.  Everything is rough.  Half the shower head is blocked by scale; hall carpets look atrocious; front desk staff are variable, at best.  And I brought my cockroach to the front desk and was told management would look into it.  I haven't heard from them, so maybe they don't care... but I suspect that you'll care, so here he is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r287037190-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>287037190</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Nice Continental Breakfast.  Room was comfortable but I was not comfortable with how clean it was.  There was a musty odor and the bathroom floor was dirty.  Visible pubic hair in the corners of the bath room floor.Issues with the internet.  I have a Mac.  I could get on the network but I could not access the internet.  I went to the desk and was told that they have this problem all the time with IPhones and Mac Computers.  They did not have a solution.  I call Mac support and the fix is oh so very simple. You would thing that someone would have tried to find out if there was a solution if this happens to a number of customers.  They may want to look into it.  It is stupid simple if you know what to do.  It would stop a lot of annoyed customers is they would check it out.  Sorry I made the effort they should too. Still annoyed over the internet issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice Continental Breakfast.  Room was comfortable but I was not comfortable with how clean it was.  There was a musty odor and the bathroom floor was dirty.  Visible pubic hair in the corners of the bath room floor.Issues with the internet.  I have a Mac.  I could get on the network but I could not access the internet.  I went to the desk and was told that they have this problem all the time with IPhones and Mac Computers.  They did not have a solution.  I call Mac support and the fix is oh so very simple. You would thing that someone would have tried to find out if there was a solution if this happens to a number of customers.  They may want to look into it.  It is stupid simple if you know what to do.  It would stop a lot of annoyed customers is they would check it out.  Sorry I made the effort they should too. Still annoyed over the internet issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r274858615-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>274858615</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>The noise</t>
+  </si>
+  <si>
+    <t>Aside from the noise (running children on the above floor) our stay was very comfortable and our room was very clean. Carpets in hallways could use some TLC. The complimentary continental breakfast was a plus.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r248490831-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>248490831</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Non-Existent Customer Service</t>
+  </si>
+  <si>
+    <t>When I stay at a Comfort Inn, I don't expect the Ritz. I do however expect the staff to show some concern for its guests. My staff and I stayed at the this hotel this past Saturday and it was potentially the worst lodging experience yet (I travel 20+ times a year). There are several other things I can point out that did not satisfy my description of a decent hotel (shower, location, noise) but you can read the other reviews as they do it justice.
+First off, it took the GM 2 weeks to respond to my initial inquiry about a rate. When he finally did respond, it was a general email with only a CC form attached. The only correspondence after that was the room confirmation numbers. I sent him the names to attach the rooms and got no response.
+When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still...When I stay at a Comfort Inn, I don't expect the Ritz. I do however expect the staff to show some concern for its guests. My staff and I stayed at the this hotel this past Saturday and it was potentially the worst lodging experience yet (I travel 20+ times a year). There are several other things I can point out that did not satisfy my description of a decent hotel (shower, location, noise) but you can read the other reviews as they do it justice.First off, it took the GM 2 weeks to respond to my initial inquiry about a rate. When he finally did respond, it was a general email with only a CC form attached. The only correspondence after that was the room confirmation numbers. I sent him the names to attach the rooms and got no response.When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still charged to my account, as well as the guest I had - so we ended up paying for the same room, twice.The worst part of everything has been the customer service, my the GM Nash Shah. I have emailed, and called multiple times of the invoice and still no response. He has been a distant, if not non-existent presence at this hotel. I intend to contact the Comfort Inn corporate staff and reporting this hotel so that nobody else has these programs. In the meantime, I recommend people steer clear of this establishment!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>When I stay at a Comfort Inn, I don't expect the Ritz. I do however expect the staff to show some concern for its guests. My staff and I stayed at the this hotel this past Saturday and it was potentially the worst lodging experience yet (I travel 20+ times a year). There are several other things I can point out that did not satisfy my description of a decent hotel (shower, location, noise) but you can read the other reviews as they do it justice.
+First off, it took the GM 2 weeks to respond to my initial inquiry about a rate. When he finally did respond, it was a general email with only a CC form attached. The only correspondence after that was the room confirmation numbers. I sent him the names to attach the rooms and got no response.
+When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still...When I stay at a Comfort Inn, I don't expect the Ritz. I do however expect the staff to show some concern for its guests. My staff and I stayed at the this hotel this past Saturday and it was potentially the worst lodging experience yet (I travel 20+ times a year). There are several other things I can point out that did not satisfy my description of a decent hotel (shower, location, noise) but you can read the other reviews as they do it justice.First off, it took the GM 2 weeks to respond to my initial inquiry about a rate. When he finally did respond, it was a general email with only a CC form attached. The only correspondence after that was the room confirmation numbers. I sent him the names to attach the rooms and got no response.When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still charged to my account, as well as the guest I had - so we ended up paying for the same room, twice.The worst part of everything has been the customer service, my the GM Nash Shah. I have emailed, and called multiple times of the invoice and still no response. He has been a distant, if not non-existent presence at this hotel. I intend to contact the Comfort Inn corporate staff and reporting this hotel so that nobody else has these programs. In the meantime, I recommend people steer clear of this establishment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r242161406-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>242161406</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Bed bugs. Horrible rating-a big zero</t>
+  </si>
+  <si>
+    <t>I know for a fact I got bed bugs from this hotel. I tried on several occasions to reach the General Manager and I never got a return call. The staff would tell me he would be there at a certain time than when I call at that time, I would be told a different time. I feel that the Manager was avoiding me, because he received my note from customer service. I know that issues happen, but how you handle the issues is where good or bad customer service counts. If the General Manager had enough  courtesy  to return my call and offered a refund on the room, I would have not written this horrible review. Even today, I am still dealing with the aftermath of bed bugs at my home. :(((MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I know for a fact I got bed bugs from this hotel. I tried on several occasions to reach the General Manager and I never got a return call. The staff would tell me he would be there at a certain time than when I call at that time, I would be told a different time. I feel that the Manager was avoiding me, because he received my note from customer service. I know that issues happen, but how you handle the issues is where good or bad customer service counts. If the General Manager had enough  courtesy  to return my call and offered a refund on the room, I would have not written this horrible review. Even today, I am still dealing with the aftermath of bed bugs at my home. :(((More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r234240141-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>234240141</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Nice room but really bad service!</t>
+  </si>
+  <si>
+    <t>The room is nice, but the service is really awful! 
+We reserved the hotel by a travel agency and paid in advance. On the check-in day, when we were driving to the hotel, my dad met some healthy problems, and we decided to stay in Solvang to make him comfortable and arrive the hotel the next day. Since we had pre-paid the money, we thought the hotel would keep the room for us. But when we arrived the next day, the staff at the front desk said they've already sold our rooms for other people and there was only one room left, since we didn't check in as scheduled. I explained to her about my father's healthy problem and expressed my apology, but she refused us with very rude attitude and didn't listen to us at all. Such hostile and unreasonable response was really unbearable. It was late at night, I have no choice but make a call to our travel agency, they help me call the front dest, but the staff was even more ferocious and the only answer is "No!". At last, our travel agency called her boss and they finally made a compromise and gave us two rooms, instead of what they told us that "there is only one room left".
+It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came...The room is nice, but the service is really awful! We reserved the hotel by a travel agency and paid in advance. On the check-in day, when we were driving to the hotel, my dad met some healthy problems, and we decided to stay in Solvang to make him comfortable and arrive the hotel the next day. Since we had pre-paid the money, we thought the hotel would keep the room for us. But when we arrived the next day, the staff at the front desk said they've already sold our rooms for other people and there was only one room left, since we didn't check in as scheduled. I explained to her about my father's healthy problem and expressed my apology, but she refused us with very rude attitude and didn't listen to us at all. Such hostile and unreasonable response was really unbearable. It was late at night, I have no choice but make a call to our travel agency, they help me call the front dest, but the staff was even more ferocious and the only answer is "No!". At last, our travel agency called her boss and they finally made a compromise and gave us two rooms, instead of what they told us that "there is only one room left".It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came back the staff said they didn't find it. We then asked to watch the vedio record taken by the monitor on the wall, the staff said they don't have the access permissions. We told them that we would leave early the next morning and beg for help, they said they can't do anything but promised their manager will come early the next morning and help us. But on the next morning, they told us their manager is not available. Since we were in a hurry to the airport, I left a note on the front desk with all my information on it. After I came back home, I called back three times and finally got the answer of their manager, who said he needs report to his boss and reply me later! But I still haven't heard from them yet! Such low efficiency makes me quite furious now.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The room is nice, but the service is really awful! 
+We reserved the hotel by a travel agency and paid in advance. On the check-in day, when we were driving to the hotel, my dad met some healthy problems, and we decided to stay in Solvang to make him comfortable and arrive the hotel the next day. Since we had pre-paid the money, we thought the hotel would keep the room for us. But when we arrived the next day, the staff at the front desk said they've already sold our rooms for other people and there was only one room left, since we didn't check in as scheduled. I explained to her about my father's healthy problem and expressed my apology, but she refused us with very rude attitude and didn't listen to us at all. Such hostile and unreasonable response was really unbearable. It was late at night, I have no choice but make a call to our travel agency, they help me call the front dest, but the staff was even more ferocious and the only answer is "No!". At last, our travel agency called her boss and they finally made a compromise and gave us two rooms, instead of what they told us that "there is only one room left".
+It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came...The room is nice, but the service is really awful! We reserved the hotel by a travel agency and paid in advance. On the check-in day, when we were driving to the hotel, my dad met some healthy problems, and we decided to stay in Solvang to make him comfortable and arrive the hotel the next day. Since we had pre-paid the money, we thought the hotel would keep the room for us. But when we arrived the next day, the staff at the front desk said they've already sold our rooms for other people and there was only one room left, since we didn't check in as scheduled. I explained to her about my father's healthy problem and expressed my apology, but she refused us with very rude attitude and didn't listen to us at all. Such hostile and unreasonable response was really unbearable. It was late at night, I have no choice but make a call to our travel agency, they help me call the front dest, but the staff was even more ferocious and the only answer is "No!". At last, our travel agency called her boss and they finally made a compromise and gave us two rooms, instead of what they told us that "there is only one room left".It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came back the staff said they didn't find it. We then asked to watch the vedio record taken by the monitor on the wall, the staff said they don't have the access permissions. We told them that we would leave early the next morning and beg for help, they said they can't do anything but promised their manager will come early the next morning and help us. But on the next morning, they told us their manager is not available. Since we were in a hurry to the airport, I left a note on the front desk with all my information on it. After I came back home, I called back three times and finally got the answer of their manager, who said he needs report to his boss and reply me later! But I still haven't heard from them yet! Such low efficiency makes me quite furious now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r191068415-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>191068415</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>Stayed here 8x over 3 years:  My Room remodelled since last year</t>
+  </si>
+  <si>
+    <t>Have stayed here 8x. Gritty area.  Woman should not stay here alone.  Pretty safe, though.Directly across the street from Bicycle Casino, so lots of Characters across the street, and walking about.  Poor fastfood restaurants 1-2-3 blocks away, I've eaten in 4-5 separate ones, each one bad versions of themselves.  Worst neighborhood for food I've yet encountered in LA area.This location, I've had great service at the front desk, passable service, and poor service.You're booking a value room here and do get accordant value.  This Room has ben newly updated, though, it's much, much nicer than it was 1 year ago.And, I will be back!  I booked rooms here in the last 2 weeks at AAA $71 / $75 / $80 per nights.This specific location really works for me.  Depends on what you're doing.  With LA traffic, I recommend staying CLOSE to where you have to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here 8x. Gritty area.  Woman should not stay here alone.  Pretty safe, though.Directly across the street from Bicycle Casino, so lots of Characters across the street, and walking about.  Poor fastfood restaurants 1-2-3 blocks away, I've eaten in 4-5 separate ones, each one bad versions of themselves.  Worst neighborhood for food I've yet encountered in LA area.This location, I've had great service at the front desk, passable service, and poor service.You're booking a value room here and do get accordant value.  This Room has ben newly updated, though, it's much, much nicer than it was 1 year ago.And, I will be back!  I booked rooms here in the last 2 weeks at AAA $71 / $75 / $80 per nights.This specific location really works for me.  Depends on what you're doing.  With LA traffic, I recommend staying CLOSE to where you have to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r189420997-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>189420997</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Booked last minute for NYE.</t>
+  </si>
+  <si>
+    <t>Decided to attend an event in LA last minute and came across this hotel for only $115. Was a little worried after reading some of the reviews until I realized they were 4yrs old. Anyways, the hotel staff was friendly and accommodating, the lobby was large and clean. We got a room on the second floor which was clean and had a large fridge and plenty of towels and other linens. I am not a smoker and was glad that there was no smell of cigarettes at all throughout the hotel. I found the area safe (I drive a new chrysler 300) and wasnt worried at all about leaving it there over night. Overall great experience, the only reason I didnt give it 5 stars was because the fridge temp didnt get as cold as needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Decided to attend an event in LA last minute and came across this hotel for only $115. Was a little worried after reading some of the reviews until I realized they were 4yrs old. Anyways, the hotel staff was friendly and accommodating, the lobby was large and clean. We got a room on the second floor which was clean and had a large fridge and plenty of towels and other linens. I am not a smoker and was glad that there was no smell of cigarettes at all throughout the hotel. I found the area safe (I drive a new chrysler 300) and wasnt worried at all about leaving it there over night. Overall great experience, the only reason I didnt give it 5 stars was because the fridge temp didnt get as cold as needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r181780489-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>181780489</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>worst service from reception ever</t>
+  </si>
+  <si>
+    <t>After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer...After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer an upgrade when they check in later than giving it to us, because we were not nice enough. What was that? This is really the worst experience from any receptionists of any hotel at all. Now I doubt I would book with the same hotel chain. I wish if Miss Idarya could be more professional and suggested a different solution such as calling agoda on behalf of us or something like that, I believe I would wrote a complete different review instead. And to add on the list, the receptionist didn’t return our credit card until the next morning and told our relatives who called that we have checked out despite we were still in the hotel. My final comment is to stay away from this hotel if you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer...After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer an upgrade when they check in later than giving it to us, because we were not nice enough. What was that? This is really the worst experience from any receptionists of any hotel at all. Now I doubt I would book with the same hotel chain. I wish if Miss Idarya could be more professional and suggested a different solution such as calling agoda on behalf of us or something like that, I believe I would wrote a complete different review instead. And to add on the list, the receptionist didn’t return our credit card until the next morning and told our relatives who called that we have checked out despite we were still in the hotel. My final comment is to stay away from this hotel if you can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r159751210-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>159751210</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Positives:
+Checked in late Friday night on April 26th. I had just driven into town from Las Vegas. The night auditor Ylayda was very pleasant from the beginning. I called and checked on availability for that night. She made my reservation over the phone and put me at ease. When I arrived I noticed the beautiful lobby. But what really caught my attention was the warm greeting from Ylayda. She defined the meaning of an inn keeper and being hospitable. I stayed 2 nights and each time Ylayda made me feel at home. I will no longer stay anywhere else when I'm in town thanks to her. 
+Areas needing attention:
+As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I...Positives:Checked in late Friday night on April 26th. I had just driven into town from Las Vegas. The night auditor Ylayda was very pleasant from the beginning. I called and checked on availability for that night. She made my reservation over the phone and put me at ease. When I arrived I noticed the beautiful lobby. But what really caught my attention was the warm greeting from Ylayda. She defined the meaning of an inn keeper and being hospitable. I stayed 2 nights and each time Ylayda made me feel at home. I will no longer stay anywhere else when I'm in town thanks to her. Areas needing attention:As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I would endorse as a director of operations. Her passion and professionalism definetly stood out during my stay. She's a keeper and the Comfort Inn is very fortunate to have her. She's a great ambassador of hospitality. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Positives:
+Checked in late Friday night on April 26th. I had just driven into town from Las Vegas. The night auditor Ylayda was very pleasant from the beginning. I called and checked on availability for that night. She made my reservation over the phone and put me at ease. When I arrived I noticed the beautiful lobby. But what really caught my attention was the warm greeting from Ylayda. She defined the meaning of an inn keeper and being hospitable. I stayed 2 nights and each time Ylayda made me feel at home. I will no longer stay anywhere else when I'm in town thanks to her. 
+Areas needing attention:
+As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I...Positives:Checked in late Friday night on April 26th. I had just driven into town from Las Vegas. The night auditor Ylayda was very pleasant from the beginning. I called and checked on availability for that night. She made my reservation over the phone and put me at ease. When I arrived I noticed the beautiful lobby. But what really caught my attention was the warm greeting from Ylayda. She defined the meaning of an inn keeper and being hospitable. I stayed 2 nights and each time Ylayda made me feel at home. I will no longer stay anywhere else when I'm in town thanks to her. Areas needing attention:As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I would endorse as a director of operations. Her passion and professionalism definetly stood out during my stay. She's a keeper and the Comfort Inn is very fortunate to have her. She's a great ambassador of hospitality. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r158252453-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>158252453</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Agressive Manager!</t>
+  </si>
+  <si>
+    <t>This hotel is very good located. Not bad in relation to the cost. I was going to book for a whole month, but the manager was very aggressive. We would not be able to relax in the restaurant/lobby at night. She has terrible service towards customers. Because of her attitude I decided to move to another hotel. Internet was not available in the rooms, although it is supposed to be everywhere in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded April 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is very good located. Not bad in relation to the cost. I was going to book for a whole month, but the manager was very aggressive. We would not be able to relax in the restaurant/lobby at night. She has terrible service towards customers. Because of her attitude I decided to move to another hotel. Internet was not available in the rooms, although it is supposed to be everywhere in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r156546633-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>156546633</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Superb Location, Service and Price</t>
+  </si>
+  <si>
+    <t>As a frequent traveler to LA/Hollywood/Commerce for both business and pleasure, I'm constantly expanding my base of hotels and places to stay depending on the needs of the trip. Every time I come to commerce, I stay at Commerce Casino.  Last few visits, I have tried Bicycle Casino.  Great small poker casino.  This hotel is right across it.  WOW, Hugh plus.I'm glad I had the recent opportunity to stay at the Comfort Inn, not only due to its convenient location for my purposes, but also for its value and decent service.Rooms were fairly clean, price was fair, and  Checkin was exceptionally friendly and we had only booked for one night as it was busy the second night but they were able to fit us in which was great. Not much more to ask when you're going to be spending minimal time in your room but need a solid place to sleep and refresh.  I never tried their free breakfast, but it was full house in the morning.   We will be sure to add this hotel to our list as a top value place to stay when I’m back in Los Angeles. BTW, Tripadvisor sticker on the front entrance door made me write this review.  signs states, "recently reveiwed on tripadvisor"  Please Rate this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager139, General Manager at Quality Inn &amp; Suites Bell Gardens, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>As a frequent traveler to LA/Hollywood/Commerce for both business and pleasure, I'm constantly expanding my base of hotels and places to stay depending on the needs of the trip. Every time I come to commerce, I stay at Commerce Casino.  Last few visits, I have tried Bicycle Casino.  Great small poker casino.  This hotel is right across it.  WOW, Hugh plus.I'm glad I had the recent opportunity to stay at the Comfort Inn, not only due to its convenient location for my purposes, but also for its value and decent service.Rooms were fairly clean, price was fair, and  Checkin was exceptionally friendly and we had only booked for one night as it was busy the second night but they were able to fit us in which was great. Not much more to ask when you're going to be spending minimal time in your room but need a solid place to sleep and refresh.  I never tried their free breakfast, but it was full house in the morning.   We will be sure to add this hotel to our list as a top value place to stay when I’m back in Los Angeles. BTW, Tripadvisor sticker on the front entrance door made me write this review.  signs states, "recently reveiwed on tripadvisor"  Please Rate this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r140160050-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>140160050</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Bed Bugs!!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel August 6th-9th, 2012.  This hotel is infested with bed bugs. The hotel is on the bed bug registry under a different name "The Ramada limited suites bell gardens". Do your homework and research it before you stay! During my stay I woke up with bites on my legs but didn't know what it was.  I did see a bug but at the time I didn't know what it was.  I unknowingly brought a bug home in my luggage and now have a small infestation in my house!  I am positive that they are aware of the problem after reading reviews and researching. this location.  There is no doubt in my mind that this is where the bugs came from!  It is going to cost me a small fortune to rid my home of the bed bugs and the hotel is taking no responsibility. Don't be like me and end up with a costly and gross infestation from this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel August 6th-9th, 2012.  This hotel is infested with bed bugs. The hotel is on the bed bug registry under a different name "The Ramada limited suites bell gardens". Do your homework and research it before you stay! During my stay I woke up with bites on my legs but didn't know what it was.  I did see a bug but at the time I didn't know what it was.  I unknowingly brought a bug home in my luggage and now have a small infestation in my house!  I am positive that they are aware of the problem after reading reviews and researching. this location.  There is no doubt in my mind that this is where the bugs came from!  It is going to cost me a small fortune to rid my home of the bed bugs and the hotel is taking no responsibility. Don't be like me and end up with a costly and gross infestation from this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r135703879-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>135703879</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Bed bugs, do not stay here!!! :(</t>
+  </si>
+  <si>
+    <t>Im writing this review while still in the bug infested room. When we got here last night, everything seemed fine. It´s a Comfort Inn so I was not expecting much, the only hotel we found in the area, since we were visiting friends. Last minute trip. We got to the room, which is very large and decently appointed, everything was fine. Friends got in the shower and I log in to trip advisor, only to discovery the terrible reviews for this hotel!!! As I was reading down the reviews, I started feeling bugs everywhere, took the sheet off the bed and there they were!!! Fleas and bugs on the bed!!! Front desk clerk acted surprised when we told her about the bugs, and she claim she had never heard a client complain about that. It was around 10PM. She said they change the bedding every day, and noone was there to change the sheets, so we came out of the front desk with "clean sheets" and we changed the bedding ourselves.
+Next morning (as I am typing the review), my friend wakes up and she has bites all over her body!!!!! Front desk clerk gave her alcohol, cotton and a medication. Bathtub is disgusting, it´s worn out and seems like it´s never been serviced or replaced.
+It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had...Im writing this review while still in the bug infested room. When we got here last night, everything seemed fine. It´s a Comfort Inn so I was not expecting much, the only hotel we found in the area, since we were visiting friends. Last minute trip. We got to the room, which is very large and decently appointed, everything was fine. Friends got in the shower and I log in to trip advisor, only to discovery the terrible reviews for this hotel!!! As I was reading down the reviews, I started feeling bugs everywhere, took the sheet off the bed and there they were!!! Fleas and bugs on the bed!!! Front desk clerk acted surprised when we told her about the bugs, and she claim she had never heard a client complain about that. It was around 10PM. She said they change the bedding every day, and noone was there to change the sheets, so we came out of the front desk with "clean sheets" and we changed the bedding ourselves.Next morning (as I am typing the review), my friend wakes up and she has bites all over her body!!!!! Front desk clerk gave her alcohol, cotton and a medication. Bathtub is disgusting, it´s worn out and seems like it´s never been serviced or replaced.It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had no chance to read the reviews of the property... until I was laying down on the bug infested bed....We had a 2 king bedroom, which was really big and comfy... except for the bugs...I would not recommend anyone to stay here. If management does not do anything to fight the bugs, I think there is no reason why for guest to stay here, as they don´t care about their customers. I just hope I don´t bring the bugs back home!!!! Ugh!!!! I´m afraid of taking a shower in their nasty bathtub!!!! DISGUSTING!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Im writing this review while still in the bug infested room. When we got here last night, everything seemed fine. It´s a Comfort Inn so I was not expecting much, the only hotel we found in the area, since we were visiting friends. Last minute trip. We got to the room, which is very large and decently appointed, everything was fine. Friends got in the shower and I log in to trip advisor, only to discovery the terrible reviews for this hotel!!! As I was reading down the reviews, I started feeling bugs everywhere, took the sheet off the bed and there they were!!! Fleas and bugs on the bed!!! Front desk clerk acted surprised when we told her about the bugs, and she claim she had never heard a client complain about that. It was around 10PM. She said they change the bedding every day, and noone was there to change the sheets, so we came out of the front desk with "clean sheets" and we changed the bedding ourselves.
+Next morning (as I am typing the review), my friend wakes up and she has bites all over her body!!!!! Front desk clerk gave her alcohol, cotton and a medication. Bathtub is disgusting, it´s worn out and seems like it´s never been serviced or replaced.
+It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had...Im writing this review while still in the bug infested room. When we got here last night, everything seemed fine. It´s a Comfort Inn so I was not expecting much, the only hotel we found in the area, since we were visiting friends. Last minute trip. We got to the room, which is very large and decently appointed, everything was fine. Friends got in the shower and I log in to trip advisor, only to discovery the terrible reviews for this hotel!!! As I was reading down the reviews, I started feeling bugs everywhere, took the sheet off the bed and there they were!!! Fleas and bugs on the bed!!! Front desk clerk acted surprised when we told her about the bugs, and she claim she had never heard a client complain about that. It was around 10PM. She said they change the bedding every day, and noone was there to change the sheets, so we came out of the front desk with "clean sheets" and we changed the bedding ourselves.Next morning (as I am typing the review), my friend wakes up and she has bites all over her body!!!!! Front desk clerk gave her alcohol, cotton and a medication. Bathtub is disgusting, it´s worn out and seems like it´s never been serviced or replaced.It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had no chance to read the reviews of the property... until I was laying down on the bug infested bed....We had a 2 king bedroom, which was really big and comfy... except for the bugs...I would not recommend anyone to stay here. If management does not do anything to fight the bugs, I think there is no reason why for guest to stay here, as they don´t care about their customers. I just hope I don´t bring the bugs back home!!!! Ugh!!!! I´m afraid of taking a shower in their nasty bathtub!!!! DISGUSTING!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r135623216-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>135623216</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>I went to California to visit some family. I booked a room here previously to arriving. They did not take Debit/Credit cards which was wierd, but they did take cash. I thought the rooms were very spacious however their cleaning left much to be desired. You could see the dirt stains under the bathroom sink and hallways had dirty carpet and stains. Breakfast had a good selection but eggs were cold and sausage was at room temp. We did enjoy the pool even though I got stuck with glass while walking in the pool. Hot tub had what seemed to be a condom inside but pool was very clean. Parking is hard to find even handicap spaces since they get taken by random people from the night club next door. If I were to come back to party it would be a good place, but not while visiting with the family although it could be cleaner and more taken care of.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I went to California to visit some family. I booked a room here previously to arriving. They did not take Debit/Credit cards which was wierd, but they did take cash. I thought the rooms were very spacious however their cleaning left much to be desired. You could see the dirt stains under the bathroom sink and hallways had dirty carpet and stains. Breakfast had a good selection but eggs were cold and sausage was at room temp. We did enjoy the pool even though I got stuck with glass while walking in the pool. Hot tub had what seemed to be a condom inside but pool was very clean. Parking is hard to find even handicap spaces since they get taken by random people from the night club next door. If I were to come back to party it would be a good place, but not while visiting with the family although it could be cleaner and more taken care of.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r116997685-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>116997685</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Friendly staff, good location</t>
+  </si>
+  <si>
+    <t>Friendly and helpful clerk at check in.  Directly across from casino, well lit.  But it is not the ritz... Lol.  Definitely a motel.  Bed sheets were clean, washroom was clean.  But definitely dated.  Think hostel quality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r116446565-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>116446565</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>Bed Bugs and no parking spaces!!</t>
+  </si>
+  <si>
+    <t>Stayed there with my husband and baby on vacation. When first checked in I asked for a crib and they said they would bring it up to our room. At first glanced room was clean. When we went to our room at night there was no crib and when I called down to the lobby they said I could go down and get it myself! Isn't that their job? There was never enough parking spaces because of the restaurant next door. One time when we parked the valet guy came and told us we had to move because that was the restaurants spots, went inside to talk to the lobby guy and he said no it was the hotels and that he would go talk to them. He never did so my husband had to go tell them himself. They were very rude! They also have bed bugs and all of us came home with bites everywhere!! :( very disappointed! We thought we were paying more for a better hotel but boy were we wrong!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Stayed there with my husband and baby on vacation. When first checked in I asked for a crib and they said they would bring it up to our room. At first glanced room was clean. When we went to our room at night there was no crib and when I called down to the lobby they said I could go down and get it myself! Isn't that their job? There was never enough parking spaces because of the restaurant next door. One time when we parked the valet guy came and told us we had to move because that was the restaurants spots, went inside to talk to the lobby guy and he said no it was the hotels and that he would go talk to them. He never did so my husband had to go tell them himself. They were very rude! They also have bed bugs and all of us came home with bites everywhere!! :( very disappointed! We thought we were paying more for a better hotel but boy were we wrong!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r114720205-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>114720205</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>Terrible Customer Serice</t>
+  </si>
+  <si>
+    <t>One star, only because I cannot give them less.Made reservations online for the same day. On my way to the hotel I was rear-ended on the 10 freeway. My wife cut her knee and the car was not drivable. I called the let them know I could not keep the reservation. The manager would not cancel the reservation because it was less than 24 hours. They charged my card anyway!I can understand if I did not show up. I was in an accent with injuries involved. I know they are booked up for the weekend and they will be able to rent the room out anyway. VERY BAD CUSTOMER SERVICE (SIC). STAY AWAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>One star, only because I cannot give them less.Made reservations online for the same day. On my way to the hotel I was rear-ended on the 10 freeway. My wife cut her knee and the car was not drivable. I called the let them know I could not keep the reservation. The manager would not cancel the reservation because it was less than 24 hours. They charged my card anyway!I can understand if I did not show up. I was in an accent with injuries involved. I know they are booked up for the weekend and they will be able to rent the room out anyway. VERY BAD CUSTOMER SERVICE (SIC). STAY AWAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r99484765-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>99484765</t>
+  </si>
+  <si>
+    <t>03/08/2011</t>
+  </si>
+  <si>
+    <t>Wifi doesnt work, Staff is indifferent</t>
+  </si>
+  <si>
+    <t>I play poker for a living and came out for a tournament at the bicycle casino. It is directly across the street which is very convenient. The wifi was constantly out of service, and the staff could have cared less. It was extreemly frustrating. If you are considering staying here and playing at the bike, skip it and head to las vegas.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r97909193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>97909193</t>
+  </si>
+  <si>
+    <t>02/24/2011</t>
+  </si>
+  <si>
+    <t>Disgusting and Bug Infested</t>
+  </si>
+  <si>
+    <t>My husband and I checked in to this "Comfort" Inn on Saturday, February 19th.  We chose it because I was playing in a poker tournament right across the street at the Bicycle Casino.  The room looked fine when we checked in, but we only looked at it briefly before leaving to go across the street.  However, we soon discovered that there were bugs everywhere, crawling on the tables, in the bathtub, on the counters, and all over the floors.  When we talked with the desk clerk, after midnight, he claimed to be so surprised!  Said the place had just been inspected and could not believe this was a problem.  It was so disgusting there was no way we could stay, and left in the middle of the night.  I also let everyone of our poker group know about the horrible infestation, and suggested that no one stay there.  STAY AWAY....ABSOLUTELY HORRIBLE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>My husband and I checked in to this "Comfort" Inn on Saturday, February 19th.  We chose it because I was playing in a poker tournament right across the street at the Bicycle Casino.  The room looked fine when we checked in, but we only looked at it briefly before leaving to go across the street.  However, we soon discovered that there were bugs everywhere, crawling on the tables, in the bathtub, on the counters, and all over the floors.  When we talked with the desk clerk, after midnight, he claimed to be so surprised!  Said the place had just been inspected and could not believe this was a problem.  It was so disgusting there was no way we could stay, and left in the middle of the night.  I also let everyone of our poker group know about the horrible infestation, and suggested that no one stay there.  STAY AWAY....ABSOLUTELY HORRIBLE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r74669714-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>74669714</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>DISGUSTING NOT CLOSE TO WHAT REVIEWS SAY</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn due to a family gathering in this area. The rooms look clean and we spotted no problems when we first got there we left the room and came back around 2 am around 5 am my sister woke up because she wasnt feeling well thats when we got up and next thing you know we see something crawling on my 4 year old daughters leg. my sister gets closer and its a cockroach crawiling on my babys leg!! later my sister went  to lay down when i notice bugs crawling on her pillow she quickly throws the pillow on the floor after this now we get up and shake up all the blankets and BED BUGS everywhere. we called housekeeping and showed them then we went to the front desk to check out and all they could say was this had never happened before. it seemed it was infested im sure other people had to had complained. anyways she didnt give us a refund or at least 50 % off any percent off...she offered us a next stay at no charge...ARE YOU SERIOUS? i will never stay here again!!! i mean it was filthy bugs and roaches everywhere.  worst hotel stay ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn due to a family gathering in this area. The rooms look clean and we spotted no problems when we first got there we left the room and came back around 2 am around 5 am my sister woke up because she wasnt feeling well thats when we got up and next thing you know we see something crawling on my 4 year old daughters leg. my sister gets closer and its a cockroach crawiling on my babys leg!! later my sister went  to lay down when i notice bugs crawling on her pillow she quickly throws the pillow on the floor after this now we get up and shake up all the blankets and BED BUGS everywhere. we called housekeeping and showed them then we went to the front desk to check out and all they could say was this had never happened before. it seemed it was infested im sure other people had to had complained. anyways she didnt give us a refund or at least 50 % off any percent off...she offered us a next stay at no charge...ARE YOU SERIOUS? i will never stay here again!!! i mean it was filthy bugs and roaches everywhere.  worst hotel stay ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r48291193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>48291193</t>
+  </si>
+  <si>
+    <t>11/01/2009</t>
+  </si>
+  <si>
+    <t>Good hotel. location not so good</t>
+  </si>
+  <si>
+    <t>this hotel is not bad at all . it worth the money you pay for it . very clean . the only bad things are front desk who didn't take my complaint about internet not working in other than the lobby seriously . and its location which is very far from downtown. next time i will book somewhere close to downtown</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r39853568-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>39853568</t>
+  </si>
+  <si>
+    <t>09/05/2009</t>
+  </si>
+  <si>
+    <t>friendliest staff in california</t>
+  </si>
+  <si>
+    <t>I definitely recomend staying here. It has a great free breakfast which opens nice &amp; early 6AM. Also has a very cozy pool &amp; whirlpool, when i was there in Aug. they just opened their new fitness room, it was really nice with it's own bathroom &amp; towels. It has a very nice flatscreen TV &amp; it's own air conditoner, if nobody else is in there you can set it nice and cool. It has plenty of free parking, I hate having to pay for parking, just one of my pet peeves. It has it's own washer/dryer which is great for extended stays, for $3.25 i can wash &amp; dry all my clothes. Billie, the woman who works the front desk in the mornings is so nice &amp; friendly, it's always a pleasure to check in with her &amp; have breakfast every morning. That's a tough job, dealing with so many people she handles it perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I definitely recomend staying here. It has a great free breakfast which opens nice &amp; early 6AM. Also has a very cozy pool &amp; whirlpool, when i was there in Aug. they just opened their new fitness room, it was really nice with it's own bathroom &amp; towels. It has a very nice flatscreen TV &amp; it's own air conditoner, if nobody else is in there you can set it nice and cool. It has plenty of free parking, I hate having to pay for parking, just one of my pet peeves. It has it's own washer/dryer which is great for extended stays, for $3.25 i can wash &amp; dry all my clothes. Billie, the woman who works the front desk in the mornings is so nice &amp; friendly, it's always a pleasure to check in with her &amp; have breakfast every morning. That's a tough job, dealing with so many people she handles it perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r29335492-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>29335492</t>
+  </si>
+  <si>
+    <t>05/04/2009</t>
+  </si>
+  <si>
+    <t>Can't Complain</t>
+  </si>
+  <si>
+    <t>This place is good for the budget traveler...it surrounded by casinos but its generally very quiet and although i thought it was sketchy at first it was actually a pretty quiet place. Free parking is good...helpful front desk staff...breakfast was available and the rooms were quite spacious. &gt;Make sure to get a room away from road. &gt;Very accesible to restaurants....and shopping center...and accesible to freeway&gt;Will take about 15 minutes if NO traffic to get to downtown LA...freeway connects to most interstates anyway...&gt;Only thing i didn't like was that the stink of cigarette smoke would not leave our room...</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r20963550-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>20963550</t>
+  </si>
+  <si>
+    <t>10/17/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I love tis hotel! The rooms are great and the management and the service is excellent! The people are nice and friendly. Most important;y, I have not had a problem in the rooms. Although it mightbe a concern for some people that this hotel is near a casino, from my experience I can tell you I have not had a problem from any "gamblers". Matter of fact, I always saw families around in the morning at breakfast. One of the front desk person actually told me they are making an effort to keep the gamblers out and they are not associated wth the casino at all which I found impressive.Overall, I would always stay here and its a great hotel period.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love tis hotel! The rooms are great and the management and the service is excellent! The people are nice and friendly. Most important;y, I have not had a problem in the rooms. Although it mightbe a concern for some people that this hotel is near a casino, from my experience I can tell you I have not had a problem from any "gamblers". Matter of fact, I always saw families around in the morning at breakfast. One of the front desk person actually told me they are making an effort to keep the gamblers out and they are not associated wth the casino at all which I found impressive.Overall, I would always stay here and its a great hotel period.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1451,2341 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>209</v>
+      </c>
+      <c r="X24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20307</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_588.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Andreas v v</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Countrynewsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r469107254-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Poker_Ninja_206</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r442663709-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -224,6 +233,9 @@
 I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before...If you're on a budget just as I was and playing in poker tournaments at the Bicycle Casino then this is the place to stay. You're saving over 60% by staying here instead of the casino hotel. This place is directly across the street from the Bicycle. Of course, the rooms aren't as nice or up to date, but you get what you pay for. I had an early flight so I arrived around 9:30 am. I knew check-in wasn't until 3 pm so I asked them to hold my baggage while I ventured out and about. I had breakfast at an IHOP down the block. I walked over to the Bicycle Casino and registered for my tournament. There's also a shopping center next to the Quality Inn, so I did some window shopping at a Marshall's and Ross. I checked back at the hotel front desk and I was able to check into my room at about 1 pm which was great. Hotel staff was nice. Room was clean, headboard on the bed creaked every time I moved so that was annoying, but had comfy pillows. Bathroom could use some updating especially with the tub. A/C worked. There was a coffee maker, mini fridge and microwave in the room. Housekeeping cleaned my room daily and replaced my used towels. If you want to re-use your towels, you just leave them hanging otherwise you leave them on the floor before you leave for the day.I noticed that on two of the nights, there was a party going in their banquet room. They must rent it out. Lots of people, music playing, party noise. If you think that would bother you, I would request a room on the third floor.They served breakfast every morning downstairs in the lobby area. Nothing gourmet or anything, but it's something right. They had coffee, cereal, bread, muffins, croissants, sausage and yellow egg rounds, do-it-yourself waffles (blueberry or buttermilk), yogurt, milk, hot water. There's many food options in the area within walking distance, i.e. Applebee's, McDonald's, KFC, Starbucks, various Mexican restaurants, etc. I did some retail shopping at the Citadel Outlets which is about 3 miles away.More</t>
   </si>
   <si>
+    <t>Mikey8700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r422313822-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Maria I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r421646521-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -266,6 +281,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Leanore J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r417750959-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -281,6 +299,9 @@
     <t>We used our points for this hotel sounded nice but when we got there late at night. Yuck carpet was very stained sofa was lumpy in need of replacing bathroom had been redone was fine. Asked to be moved but told no other availabability, too late and tired to look elsewhere. Breakfast was fine, never able to get wifi was told "keep trying".</t>
   </si>
   <si>
+    <t>Maribel Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r397113011-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -299,6 +320,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>bnj1984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r380605900-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -317,6 +341,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Kenyamite K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r366445193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -338,6 +365,9 @@
     <t>I wanted some place within 20 miles to the LAX and found this one.It was not a good value for the room rate.There was an odor probably contained in the old carpet all through the floors and the hotel rooms.The rooms were spacious and painted with updated interiors but that could not hide the odor.The exhaust fan in the room was noisy and needed to be fixed as that spoiled the otherwise quite good bathroom.The room was dimly lit and could use a brighter lamp somewhere.The staff was professional and pleasant but that did not alter the stay experience.On the bright side, I had a comfortable sleep but not my roommate for whatever reason. The beds were comfortable.It is close to a lot of eateries and grocery store.Plus it is right off the ground 710 freeway.I think this can be a decent place to stay after the carpet is replaced.More</t>
   </si>
   <si>
+    <t>Woodstock63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r330672478-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>miamouse66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r316964102-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -380,6 +413,9 @@
     <t>Hotel is close to all. Food shopping and even the bicycle club is across the street. They had the nicest fridge ive ever seen at a hotel. The staff was very friendly. Rooms were very nice. Once again lots of pillows. Love that touch. Makes me feel like home. The whole hotel is non smoking. Just wish there was some place to sit outside to smoke. And swimming pool was closed by the city due to problem with the chlorine. And part of the metal fence was missing. Plus the jaccuzi was real dirty. Breakfast was really good. Plus u could take it back to your room. Makes it comfortable. One of the few places that still has a coffee pot in the room. Thank you for a wonderful time at your hotel.More</t>
   </si>
   <si>
+    <t>bob w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r309941876-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -398,6 +434,9 @@
     <t>Where to start?  Check in was quick and easy.  We got the 1 bedroom suite.  First thing I noticed was the large rip in the couch back.  Sitting down on the couch, I almost sank down to the floor.  I could hardly climb out of the couch.  Next I saw that a lamp shade was coming apart and had holes in the shade.    In the bathroom, the shower head would be fine if you were only 5 feet tall.  In the bedroom the two bottom drawers in the cheats of drawers would not close and stuck out.  And the telephone had a large red blinking light.  I could not get it to stop blinking.  I called the. Front desk and they did send over two maintenance ladies right away.  They could not make the phone red light stop blinking either.  So I had them unplug the phone to stop the blinking light.  I use a mobility scooter and the parking area streets are very slanted.  I was very aprenhensive that I would tip over.  On the plus side, the room was clean and while the mattress was a little saggy, it was comfortable.  Best of all it is only about a 4 minute walk to the Bicycle Casino across the street.More</t>
   </si>
   <si>
+    <t>Liz M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r293899745-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -425,6 +464,9 @@
     <t>Pretty rough around the edges, but what were you expecting for $150/night in LA?  Then I squashed the cockroach.  And I've had about enough.  Everything is rough.  Half the shower head is blocked by scale; hall carpets look atrocious; front desk staff are variable, at best.  And I brought my cockroach to the front desk and was told management would look into it.  I haven't heard from them, so maybe they don't care... but I suspect that you'll care, so here he is.More</t>
   </si>
   <si>
+    <t>Ledeera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r287037190-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -443,6 +485,9 @@
     <t>Nice Continental Breakfast.  Room was comfortable but I was not comfortable with how clean it was.  There was a musty odor and the bathroom floor was dirty.  Visible pubic hair in the corners of the bath room floor.Issues with the internet.  I have a Mac.  I could get on the network but I could not access the internet.  I went to the desk and was told that they have this problem all the time with IPhones and Mac Computers.  They did not have a solution.  I call Mac support and the fix is oh so very simple. You would thing that someone would have tried to find out if there was a solution if this happens to a number of customers.  They may want to look into it.  It is stupid simple if you know what to do.  It would stop a lot of annoyed customers is they would check it out.  Sorry I made the effort they should too. Still annoyed over the internet issue.More</t>
   </si>
   <si>
+    <t>mcj84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r274858615-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>Chris G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r248490831-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -486,6 +534,9 @@
 When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still...When I stay at a Comfort Inn, I don't expect the Ritz. I do however expect the staff to show some concern for its guests. My staff and I stayed at the this hotel this past Saturday and it was potentially the worst lodging experience yet (I travel 20+ times a year). There are several other things I can point out that did not satisfy my description of a decent hotel (shower, location, noise) but you can read the other reviews as they do it justice.First off, it took the GM 2 weeks to respond to my initial inquiry about a rate. When he finally did respond, it was a general email with only a CC form attached. The only correspondence after that was the room confirmation numbers. I sent him the names to attach the rooms and got no response.When I arrived at the hotel, the names I had emailed were not entered into the system. so we needed to manually tell the desk staff the list of attendees. Even with this clarified, there was still an issue with one of my guests not being able to check in under our group reservation (he needed to purchase his own room, at a higher rate!). This was at 2AM in the morning, so it caused a 30 min mixup and resulted a us being called to resolve it in the middle of the night. The room was still charged to my account, as well as the guest I had - so we ended up paying for the same room, twice.The worst part of everything has been the customer service, my the GM Nash Shah. I have emailed, and called multiple times of the invoice and still no response. He has been a distant, if not non-existent presence at this hotel. I intend to contact the Comfort Inn corporate staff and reporting this hotel so that nobody else has these programs. In the meantime, I recommend people steer clear of this establishment!More</t>
   </si>
   <si>
+    <t>Bobbyie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r242161406-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -505,6 +556,9 @@
   </si>
   <si>
     <t>I know for a fact I got bed bugs from this hotel. I tried on several occasions to reach the General Manager and I never got a return call. The staff would tell me he would be there at a certain time than when I call at that time, I would be told a different time. I feel that the Manager was avoiding me, because he received my note from customer service. I know that issues happen, but how you handle the issues is where good or bad customer service counts. If the General Manager had enough  courtesy  to return my call and offered a refund on the room, I would have not written this horrible review. Even today, I am still dealing with the aftermath of bed bugs at my home. :(((More</t>
+  </si>
+  <si>
+    <t>Xiaochen Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r234240141-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -532,6 +586,9 @@
 It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came...The room is nice, but the service is really awful! We reserved the hotel by a travel agency and paid in advance. On the check-in day, when we were driving to the hotel, my dad met some healthy problems, and we decided to stay in Solvang to make him comfortable and arrive the hotel the next day. Since we had pre-paid the money, we thought the hotel would keep the room for us. But when we arrived the next day, the staff at the front desk said they've already sold our rooms for other people and there was only one room left, since we didn't check in as scheduled. I explained to her about my father's healthy problem and expressed my apology, but she refused us with very rude attitude and didn't listen to us at all. Such hostile and unreasonable response was really unbearable. It was late at night, I have no choice but make a call to our travel agency, they help me call the front dest, but the staff was even more ferocious and the only answer is "No!". At last, our travel agency called her boss and they finally made a compromise and gave us two rooms, instead of what they told us that "there is only one room left".It's not finished! On the last day of our stay, after having breakfast on the lobby, we left a camera on the seat, when we came back the staff said they didn't find it. We then asked to watch the vedio record taken by the monitor on the wall, the staff said they don't have the access permissions. We told them that we would leave early the next morning and beg for help, they said they can't do anything but promised their manager will come early the next morning and help us. But on the next morning, they told us their manager is not available. Since we were in a hurry to the airport, I left a note on the front desk with all my information on it. After I came back home, I called back three times and finally got the answer of their manager, who said he needs report to his boss and reply me later! But I still haven't heard from them yet! Such low efficiency makes me quite furious now.More</t>
   </si>
   <si>
+    <t>KPG99201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r191068415-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -559,6 +616,9 @@
     <t>Have stayed here 8x. Gritty area.  Woman should not stay here alone.  Pretty safe, though.Directly across the street from Bicycle Casino, so lots of Characters across the street, and walking about.  Poor fastfood restaurants 1-2-3 blocks away, I've eaten in 4-5 separate ones, each one bad versions of themselves.  Worst neighborhood for food I've yet encountered in LA area.This location, I've had great service at the front desk, passable service, and poor service.You're booking a value room here and do get accordant value.  This Room has ben newly updated, though, it's much, much nicer than it was 1 year ago.And, I will be back!  I booked rooms here in the last 2 weeks at AAA $71 / $75 / $80 per nights.This specific location really works for me.  Depends on what you're doing.  With LA traffic, I recommend staying CLOSE to where you have to be.More</t>
   </si>
   <si>
+    <t>Miguel E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r189420997-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -586,6 +646,9 @@
     <t>Decided to attend an event in LA last minute and came across this hotel for only $115. Was a little worried after reading some of the reviews until I realized they were 4yrs old. Anyways, the hotel staff was friendly and accommodating, the lobby was large and clean. We got a room on the second floor which was clean and had a large fridge and plenty of towels and other linens. I am not a smoker and was glad that there was no smell of cigarettes at all throughout the hotel. I found the area safe (I drive a new chrysler 300) and wasnt worried at all about leaving it there over night. Overall great experience, the only reason I didnt give it 5 stars was because the fridge temp didnt get as cold as needed.More</t>
   </si>
   <si>
+    <t>MJJH2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r181780489-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -611,6 +674,9 @@
   </si>
   <si>
     <t>After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer...After a long distance driving to LA and arrived at the hotel almost 1a.m., but was told by the reception, Miss Idarya, that there were no confirmation of our booking despite we have made the booking and paid to agoda more than a month ago. The receptionist shows no empathy of how exhausted we were and told us that it's our problem with agoda and should resolve it ourselves. So while trying to reason out with her, she didn't want to help at all and started telling us we were nasty, we should watch out our tone and can throw us out of the hotel if she want to, please take note we didn't do as much as raising our voice that we deserve an answer like that. So in the end, we needed to make an international call to agoda to get this resolve. Agoda recognized the problem, and when I asked the agoda representative to talk to receptionist so she could give us a room, she once again refused, saying it's not her problem; agoda should call the hotel instead. This is indeed worst receptionist I ever met in my life. So agoda called and finally she was willing to give us a room. While early on during our conversation with the reception, she said she could give us a free upgrade if she believed there is mistake, but later told us she would rather give another customer an upgrade when they check in later than giving it to us, because we were not nice enough. What was that? This is really the worst experience from any receptionists of any hotel at all. Now I doubt I would book with the same hotel chain. I wish if Miss Idarya could be more professional and suggested a different solution such as calling agoda on behalf of us or something like that, I believe I would wrote a complete different review instead. And to add on the list, the receptionist didn’t return our credit card until the next morning and told our relatives who called that we have checked out despite we were still in the hotel. My final comment is to stay away from this hotel if you can.More</t>
+  </si>
+  <si>
+    <t>Chimpo3222</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r159751210-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -643,6 +709,9 @@
 As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I...Positives:Checked in late Friday night on April 26th. I had just driven into town from Las Vegas. The night auditor Ylayda was very pleasant from the beginning. I called and checked on availability for that night. She made my reservation over the phone and put me at ease. When I arrived I noticed the beautiful lobby. But what really caught my attention was the warm greeting from Ylayda. She defined the meaning of an inn keeper and being hospitable. I stayed 2 nights and each time Ylayda made me feel at home. I will no longer stay anywhere else when I'm in town thanks to her. Areas needing attention:As I walked down the hallway and towards my room I noticed that the carpets were in dire need of some cleaning. Walls could use some TLC. The room felt clean but being someone that works in hotels I inspect my rooms wherever I stay. I have emailed the GM directly a few observations. I will point out that the room was well appointed and that in no way did I find anything that would jeopardize my stay. I firmly believe that housekeeping, maintenance, and the front office all need to be in sync to provide guests with the most pleasant experience. In this stay I will say housekeeping was average, maintenance was subpar, and the front office exceeded my expectations. Again I want to personally mention Ylayda whom I would endorse as a director of operations. Her passion and professionalism definetly stood out during my stay. She's a keeper and the Comfort Inn is very fortunate to have her. She's a great ambassador of hospitality. More</t>
   </si>
   <si>
+    <t>Memascarua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r158252453-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -670,6 +739,9 @@
     <t>This hotel is very good located. Not bad in relation to the cost. I was going to book for a whole month, but the manager was very aggressive. We would not be able to relax in the restaurant/lobby at night. She has terrible service towards customers. Because of her attitude I decided to move to another hotel. Internet was not available in the rooms, although it is supposed to be everywhere in the hotel.More</t>
   </si>
   <si>
+    <t>KampT_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r156546633-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -694,6 +766,9 @@
     <t>As a frequent traveler to LA/Hollywood/Commerce for both business and pleasure, I'm constantly expanding my base of hotels and places to stay depending on the needs of the trip. Every time I come to commerce, I stay at Commerce Casino.  Last few visits, I have tried Bicycle Casino.  Great small poker casino.  This hotel is right across it.  WOW, Hugh plus.I'm glad I had the recent opportunity to stay at the Comfort Inn, not only due to its convenient location for my purposes, but also for its value and decent service.Rooms were fairly clean, price was fair, and  Checkin was exceptionally friendly and we had only booked for one night as it was busy the second night but they were able to fit us in which was great. Not much more to ask when you're going to be spending minimal time in your room but need a solid place to sleep and refresh.  I never tried their free breakfast, but it was full house in the morning.   We will be sure to add this hotel to our list as a top value place to stay when I’m back in Los Angeles. BTW, Tripadvisor sticker on the front entrance door made me write this review.  signs states, "recently reveiwed on tripadvisor"  Please Rate this hotelMore</t>
   </si>
   <si>
+    <t>jc5432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r140160050-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -713,6 +788,9 @@
   </si>
   <si>
     <t>Stayed at this hotel August 6th-9th, 2012.  This hotel is infested with bed bugs. The hotel is on the bed bug registry under a different name "The Ramada limited suites bell gardens". Do your homework and research it before you stay! During my stay I woke up with bites on my legs but didn't know what it was.  I did see a bug but at the time I didn't know what it was.  I unknowingly brought a bug home in my luggage and now have a small infestation in my house!  I am positive that they are aware of the problem after reading reviews and researching. this location.  There is no doubt in my mind that this is where the bugs came from!  It is going to cost me a small fortune to rid my home of the bed bugs and the hotel is taking no responsibility. Don't be like me and end up with a costly and gross infestation from this hotel.More</t>
+  </si>
+  <si>
+    <t>dreamer8313</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r135703879-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -740,6 +818,9 @@
 It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had...Im writing this review while still in the bug infested room. When we got here last night, everything seemed fine. It´s a Comfort Inn so I was not expecting much, the only hotel we found in the area, since we were visiting friends. Last minute trip. We got to the room, which is very large and decently appointed, everything was fine. Friends got in the shower and I log in to trip advisor, only to discovery the terrible reviews for this hotel!!! As I was reading down the reviews, I started feeling bugs everywhere, took the sheet off the bed and there they were!!! Fleas and bugs on the bed!!! Front desk clerk acted surprised when we told her about the bugs, and she claim she had never heard a client complain about that. It was around 10PM. She said they change the bedding every day, and noone was there to change the sheets, so we came out of the front desk with "clean sheets" and we changed the bedding ourselves.Next morning (as I am typing the review), my friend wakes up and she has bites all over her body!!!!! Front desk clerk gave her alcohol, cotton and a medication. Bathtub is disgusting, it´s worn out and seems like it´s never been serviced or replaced.It´s the first time I experience something this disgusting in a property, and only because it was a last minute trip and I had no chance to read the reviews of the property... until I was laying down on the bug infested bed....We had a 2 king bedroom, which was really big and comfy... except for the bugs...I would not recommend anyone to stay here. If management does not do anything to fight the bugs, I think there is no reason why for guest to stay here, as they don´t care about their customers. I just hope I don´t bring the bugs back home!!!! Ugh!!!! I´m afraid of taking a shower in their nasty bathtub!!!! DISGUSTING!!!More</t>
   </si>
   <si>
+    <t>MariaLuisa716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r135623216-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -761,6 +842,9 @@
     <t>I went to California to visit some family. I booked a room here previously to arriving. They did not take Debit/Credit cards which was wierd, but they did take cash. I thought the rooms were very spacious however their cleaning left much to be desired. You could see the dirt stains under the bathroom sink and hallways had dirty carpet and stains. Breakfast had a good selection but eggs were cold and sausage was at room temp. We did enjoy the pool even though I got stuck with glass while walking in the pool. Hot tub had what seemed to be a condom inside but pool was very clean. Parking is hard to find even handicap spaces since they get taken by random people from the night club next door. If I were to come back to party it would be a good place, but not while visiting with the family although it could be cleaner and more taken care of.More</t>
   </si>
   <si>
+    <t>Digicision</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r116997685-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -776,6 +860,9 @@
     <t>Friendly and helpful clerk at check in.  Directly across from casino, well lit.  But it is not the ritz... Lol.  Definitely a motel.  Bed sheets were clean, washroom was clean.  But definitely dated.  Think hostel quality.</t>
   </si>
   <si>
+    <t>Brynnsmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r116446565-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -797,6 +884,9 @@
     <t>Stayed there with my husband and baby on vacation. When first checked in I asked for a crib and they said they would bring it up to our room. At first glanced room was clean. When we went to our room at night there was no crib and when I called down to the lobby they said I could go down and get it myself! Isn't that their job? There was never enough parking spaces because of the restaurant next door. One time when we parked the valet guy came and told us we had to move because that was the restaurants spots, went inside to talk to the lobby guy and he said no it was the hotels and that he would go talk to them. He never did so my husband had to go tell them himself. They were very rude! They also have bed bugs and all of us came home with bites everywhere!! :( very disappointed! We thought we were paying more for a better hotel but boy were we wrong!More</t>
   </si>
   <si>
+    <t>powerlifter4ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r114720205-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -818,6 +908,9 @@
     <t>One star, only because I cannot give them less.Made reservations online for the same day. On my way to the hotel I was rear-ended on the 10 freeway. My wife cut her knee and the car was not drivable. I called the let them know I could not keep the reservation. The manager would not cancel the reservation because it was less than 24 hours. They charged my card anyway!I can understand if I did not show up. I was in an accent with injuries involved. I know they are booked up for the weekend and they will be able to rent the room out anyway. VERY BAD CUSTOMER SERVICE (SIC). STAY AWAY.More</t>
   </si>
   <si>
+    <t>JohnGalt65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r99484765-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -836,6 +929,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Susan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r97909193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -857,6 +953,9 @@
     <t>My husband and I checked in to this "Comfort" Inn on Saturday, February 19th.  We chose it because I was playing in a poker tournament right across the street at the Bicycle Casino.  The room looked fine when we checked in, but we only looked at it briefly before leaving to go across the street.  However, we soon discovered that there were bugs everywhere, crawling on the tables, in the bathtub, on the counters, and all over the floors.  When we talked with the desk clerk, after midnight, he claimed to be so surprised!  Said the place had just been inspected and could not believe this was a problem.  It was so disgusting there was no way we could stay, and left in the middle of the night.  I also let everyone of our poker group know about the horrible infestation, and suggested that no one stay there.  STAY AWAY....ABSOLUTELY HORRIBLE!!More</t>
   </si>
   <si>
+    <t>yessyema84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r74669714-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -878,6 +977,9 @@
     <t>We stayed at Comfort Inn due to a family gathering in this area. The rooms look clean and we spotted no problems when we first got there we left the room and came back around 2 am around 5 am my sister woke up because she wasnt feeling well thats when we got up and next thing you know we see something crawling on my 4 year old daughters leg. my sister gets closer and its a cockroach crawiling on my babys leg!! later my sister went  to lay down when i notice bugs crawling on her pillow she quickly throws the pillow on the floor after this now we get up and shake up all the blankets and BED BUGS everywhere. we called housekeeping and showed them then we went to the front desk to check out and all they could say was this had never happened before. it seemed it was infested im sure other people had to had complained. anyways she didnt give us a refund or at least 50 % off any percent off...she offered us a next stay at no charge...ARE YOU SERIOUS? i will never stay here again!!! i mean it was filthy bugs and roaches everywhere.  worst hotel stay ever!More</t>
   </si>
   <si>
+    <t>viperoman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r48291193-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -896,6 +998,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>charlievegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r39853568-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -917,6 +1022,9 @@
     <t>I definitely recomend staying here. It has a great free breakfast which opens nice &amp; early 6AM. Also has a very cozy pool &amp; whirlpool, when i was there in Aug. they just opened their new fitness room, it was really nice with it's own bathroom &amp; towels. It has a very nice flatscreen TV &amp; it's own air conditoner, if nobody else is in there you can set it nice and cool. It has plenty of free parking, I hate having to pay for parking, just one of my pet peeves. It has it's own washer/dryer which is great for extended stays, for $3.25 i can wash &amp; dry all my clothes. Billie, the woman who works the front desk in the mornings is so nice &amp; friendly, it's always a pleasure to check in with her &amp; have breakfast every morning. That's a tough job, dealing with so many people she handles it perfectly.More</t>
   </si>
   <si>
+    <t>Sue-ie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r29335492-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -933,6 +1041,9 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>Nick91984</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d75991-r20963550-Quality_Inn_Suites_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -1455,43 +1566,47 @@
       <c r="A2" t="n">
         <v>20307</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1509,50 +1624,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20307</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1570,50 +1689,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20307</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1631,50 +1754,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20307</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1692,50 +1819,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20307</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1749,50 +1880,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20307</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1812,50 +1947,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20307</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1869,50 +2008,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20307</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1932,50 +2075,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20307</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1989,50 +2136,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20307</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2052,50 +2203,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20307</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2109,41 +2264,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20307</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -2162,50 +2321,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20307</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2217,47 +2380,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20307</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -2276,50 +2443,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20307</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2333,50 +2504,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20307</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2396,50 +2571,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20307</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2453,50 +2632,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20307</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2516,50 +2699,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20307</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2581,56 +2768,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20307</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2652,56 +2843,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20307</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -2723,47 +2918,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20307</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2790,56 +2989,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20307</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2861,56 +3064,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>20307</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2932,56 +3139,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="X25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20307</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3005,50 +3216,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20307</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3072,50 +3287,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20307</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3139,41 +3358,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20307</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
@@ -3202,50 +3425,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20307</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3265,50 +3492,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20307</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3328,50 +3559,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20307</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3395,50 +3630,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20307</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3462,50 +3701,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20307</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3529,50 +3772,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20307</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3586,50 +3833,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20307</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>320</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3653,50 +3904,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20307</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>328</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3720,41 +3975,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20307</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -3783,7 +4042,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
